--- a/wwwroot/Reports/categories_reportR.xlsx
+++ b/wwwroot/Reports/categories_reportR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Отчёт по категориям</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Научные расчеты</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -566,6 +569,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0">
+        <v>72</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>

--- a/wwwroot/Reports/categories_reportR.xlsx
+++ b/wwwroot/Reports/categories_reportR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Отчёт по категориям</t>
   </si>
@@ -48,34 +48,31 @@
     <t>Проектирование</t>
   </si>
   <si>
+    <t>Видеомонтаж</t>
+  </si>
+  <si>
+    <t>Игровая разработка</t>
+  </si>
+  <si>
+    <t>Работа с данными</t>
+  </si>
+  <si>
+    <t>3D-моделирование</t>
+  </si>
+  <si>
+    <t>Текстовый редактор</t>
+  </si>
+  <si>
+    <t>Видеоэффекты</t>
+  </si>
+  <si>
+    <t>Звукозапись</t>
+  </si>
+  <si>
+    <t>Научные расчеты</t>
+  </si>
+  <si>
     <t>Веб-браузер</t>
-  </si>
-  <si>
-    <t>Видеомонтаж</t>
-  </si>
-  <si>
-    <t>Игровая разработка</t>
-  </si>
-  <si>
-    <t>Работа с данными</t>
-  </si>
-  <si>
-    <t>3D-моделирование</t>
-  </si>
-  <si>
-    <t>Текстовый редактор</t>
-  </si>
-  <si>
-    <t>Видеоэффекты</t>
-  </si>
-  <si>
-    <t>Звукозапись</t>
-  </si>
-  <si>
-    <t>Научные расчеты</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -397,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -475,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
@@ -486,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
@@ -497,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -508,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
@@ -519,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>11</v>
@@ -530,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
@@ -541,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>13</v>
@@ -552,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>14</v>
@@ -563,21 +560,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0">
-        <v>72</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
